--- a/TF/codes/results/plot/finals/TrapDetrapGas.xlsx
+++ b/TF/codes/results/plot/finals/TrapDetrapGas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>index</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:MM6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4253,208 +4258,612 @@
       <c r="MM5" s="7"/>
     </row>
     <row r="6" spans="1:351" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8"/>
-      <c r="BM6" s="8"/>
-      <c r="BN6" s="8"/>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="8"/>
-      <c r="BQ6" s="8"/>
-      <c r="BR6" s="8"/>
-      <c r="BS6" s="8"/>
-      <c r="BT6" s="8"/>
-      <c r="BU6" s="8"/>
-      <c r="BV6" s="8"/>
-      <c r="BW6" s="8"/>
-      <c r="BX6" s="8"/>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
-      <c r="CC6" s="8"/>
-      <c r="CD6" s="8"/>
-      <c r="CE6" s="8"/>
-      <c r="CF6" s="8"/>
-      <c r="CG6" s="8"/>
-      <c r="CH6" s="8"/>
-      <c r="CI6" s="8"/>
-      <c r="CJ6" s="8"/>
-      <c r="CK6" s="8"/>
-      <c r="CL6" s="8"/>
-      <c r="CM6" s="8"/>
-      <c r="CN6" s="8"/>
-      <c r="CO6" s="8"/>
-      <c r="CP6" s="8"/>
-      <c r="CQ6" s="8"/>
-      <c r="CR6" s="8"/>
-      <c r="CS6" s="8"/>
-      <c r="CT6" s="8"/>
-      <c r="CU6" s="8"/>
-      <c r="CV6" s="8"/>
-      <c r="CW6" s="8"/>
-      <c r="CX6" s="8"/>
-      <c r="CY6" s="8"/>
-      <c r="CZ6" s="8"/>
-      <c r="DA6" s="8"/>
-      <c r="DB6" s="8"/>
-      <c r="DC6" s="8"/>
-      <c r="DD6" s="8"/>
-      <c r="DE6" s="8"/>
-      <c r="DF6" s="8"/>
-      <c r="DG6" s="8"/>
-      <c r="DH6" s="8"/>
-      <c r="DI6" s="8"/>
-      <c r="DJ6" s="8"/>
-      <c r="DK6" s="8"/>
-      <c r="DL6" s="8"/>
-      <c r="DM6" s="8"/>
-      <c r="DN6" s="8"/>
-      <c r="DO6" s="8"/>
-      <c r="DP6" s="8"/>
-      <c r="DQ6" s="8"/>
-      <c r="DR6" s="8"/>
-      <c r="DS6" s="8"/>
-      <c r="DT6" s="8"/>
-      <c r="DU6" s="8"/>
-      <c r="DV6" s="8"/>
-      <c r="DW6" s="8"/>
-      <c r="DX6" s="8"/>
-      <c r="DY6" s="8"/>
-      <c r="DZ6" s="8"/>
-      <c r="EA6" s="8"/>
-      <c r="EB6" s="8"/>
-      <c r="EC6" s="8"/>
-      <c r="ED6" s="8"/>
-      <c r="EE6" s="8"/>
-      <c r="EF6" s="8"/>
-      <c r="EG6" s="8"/>
-      <c r="EH6" s="8"/>
-      <c r="EI6" s="8"/>
-      <c r="EJ6" s="8"/>
-      <c r="EK6" s="8"/>
-      <c r="EL6" s="8"/>
-      <c r="EM6" s="8"/>
-      <c r="EN6" s="8"/>
-      <c r="EO6" s="8"/>
-      <c r="EP6" s="8"/>
-      <c r="EQ6" s="8"/>
-      <c r="ER6" s="8"/>
-      <c r="ES6" s="8"/>
-      <c r="ET6" s="8"/>
-      <c r="EU6" s="8"/>
-      <c r="EV6" s="8"/>
-      <c r="EW6" s="8"/>
-      <c r="EX6" s="8"/>
-      <c r="EY6" s="8"/>
-      <c r="EZ6" s="8"/>
-      <c r="FA6" s="8"/>
-      <c r="FB6" s="8"/>
-      <c r="FC6" s="8"/>
-      <c r="FD6" s="8"/>
-      <c r="FE6" s="8"/>
-      <c r="FF6" s="8"/>
-      <c r="FG6" s="8"/>
-      <c r="FH6" s="8"/>
-      <c r="FI6" s="8"/>
-      <c r="FJ6" s="8"/>
-      <c r="FK6" s="8"/>
-      <c r="FL6" s="8"/>
-      <c r="FM6" s="8"/>
-      <c r="FN6" s="8"/>
-      <c r="FO6" s="8"/>
-      <c r="FP6" s="8"/>
-      <c r="FQ6" s="8"/>
-      <c r="FR6" s="8"/>
-      <c r="FS6" s="8"/>
-      <c r="FT6" s="8"/>
-      <c r="FU6" s="8"/>
-      <c r="FV6" s="8"/>
-      <c r="FW6" s="8"/>
-      <c r="FX6" s="8"/>
-      <c r="FY6" s="8"/>
-      <c r="FZ6" s="8"/>
-      <c r="GA6" s="8"/>
-      <c r="GB6" s="8"/>
-      <c r="GC6" s="8"/>
-      <c r="GD6" s="8"/>
-      <c r="GE6" s="8"/>
-      <c r="GF6" s="8"/>
-      <c r="GG6" s="8"/>
-      <c r="GH6" s="8"/>
-      <c r="GI6" s="8"/>
-      <c r="GJ6" s="8"/>
-      <c r="GK6" s="8"/>
-      <c r="GL6" s="8"/>
-      <c r="GM6" s="8"/>
-      <c r="GN6" s="8"/>
-      <c r="GO6" s="8"/>
-      <c r="GP6" s="8"/>
-      <c r="GQ6" s="8"/>
-      <c r="GR6" s="8"/>
-      <c r="GS6" s="8"/>
-      <c r="GT6" s="8"/>
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.0448697573166897E+28</v>
+      </c>
+      <c r="C6" s="8">
+        <v>9.5994694460705945E+27</v>
+      </c>
+      <c r="D6" s="8">
+        <v>8.6460736708304643E+27</v>
+      </c>
+      <c r="E6" s="8">
+        <v>7.5742910618342949E+27</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6.3863872436502585E+27</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5.1184087168724872E+27</v>
+      </c>
+      <c r="H6" s="8">
+        <v>3.8528159391394945E+27</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2.7044601036482811E+27</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1.7723621483845339E+27</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.0939968766835727E+27</v>
+      </c>
+      <c r="L6" s="8">
+        <v>6.4373717713825056E+26</v>
+      </c>
+      <c r="M6" s="8">
+        <v>3.6510652854376764E+26</v>
+      </c>
+      <c r="N6" s="8">
+        <v>2.0120410869128779E+26</v>
+      </c>
+      <c r="O6" s="8">
+        <v>1.0827620053324741E+26</v>
+      </c>
+      <c r="P6" s="8">
+        <v>5.7055044402576397E+25</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>2.9476217280596948E+25</v>
+      </c>
+      <c r="R6" s="8">
+        <v>1.4936575100647109E+25</v>
+      </c>
+      <c r="S6" s="8">
+        <v>7.4237722498031565E+24</v>
+      </c>
+      <c r="T6" s="8">
+        <v>3.6182458434866349E+24</v>
+      </c>
+      <c r="U6" s="8">
+        <v>1.7288152864295576E+24</v>
+      </c>
+      <c r="V6" s="8">
+        <v>8.0957369322079421E+23</v>
+      </c>
+      <c r="W6" s="8">
+        <v>3.7146631179354582E+23</v>
+      </c>
+      <c r="X6" s="8">
+        <v>1.6697804417392732E+23</v>
+      </c>
+      <c r="Y6" s="8">
+        <v>7.3522887977352024E+22</v>
+      </c>
+      <c r="Z6" s="8">
+        <v>3.1708726228111147E+22</v>
+      </c>
+      <c r="AA6" s="8">
+        <v>1.3394268863109068E+22</v>
+      </c>
+      <c r="AB6" s="8">
+        <v>5.5418228847243113E+21</v>
+      </c>
+      <c r="AC6" s="8">
+        <v>2.2459756980255764E+21</v>
+      </c>
+      <c r="AD6" s="8">
+        <v>8.916926128498842E+20</v>
+      </c>
+      <c r="AE6" s="8">
+        <v>3.4684333099463121E+20</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>1.3219636979433192E+20</v>
+      </c>
+      <c r="AG6" s="8">
+        <v>4.9378923519359214E+19</v>
+      </c>
+      <c r="AH6" s="8">
+        <v>1.8078987366262397E+19</v>
+      </c>
+      <c r="AI6" s="8">
+        <v>6.4892850645197476E+18</v>
+      </c>
+      <c r="AJ6" s="8">
+        <v>2.2839895098364088E+18</v>
+      </c>
+      <c r="AK6" s="8">
+        <v>7.8841262808309722E+17</v>
+      </c>
+      <c r="AL6" s="8">
+        <v>2.6697198527559248E+17</v>
+      </c>
+      <c r="AM6" s="8">
+        <v>8.8699868785306816E+16</v>
+      </c>
+      <c r="AN6" s="8">
+        <v>2.892141034696838E+16</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>9256573292483744</v>
+      </c>
+      <c r="AP6" s="8">
+        <v>2908781036822401.5</v>
+      </c>
+      <c r="AQ6" s="8">
+        <v>897630995223138.37</v>
+      </c>
+      <c r="AR6" s="8">
+        <v>272086306225905.19</v>
+      </c>
+      <c r="AS6" s="8">
+        <v>81027663752410.953</v>
+      </c>
+      <c r="AT6" s="8">
+        <v>23712263932713.273</v>
+      </c>
+      <c r="AU6" s="8">
+        <v>6820566144483.5449</v>
+      </c>
+      <c r="AV6" s="8">
+        <v>1928720771475.6196</v>
+      </c>
+      <c r="AW6" s="8">
+        <v>536306070276.68799</v>
+      </c>
+      <c r="AX6" s="8">
+        <v>146670355867.81775</v>
+      </c>
+      <c r="AY6" s="8">
+        <v>39459264563.075302</v>
+      </c>
+      <c r="AZ6" s="8">
+        <v>10445330055.386414</v>
+      </c>
+      <c r="BA6" s="8">
+        <v>2721135480.6108818</v>
+      </c>
+      <c r="BB6" s="8">
+        <v>697782310.25414717</v>
+      </c>
+      <c r="BC6" s="8">
+        <v>176164006.21255812</v>
+      </c>
+      <c r="BD6" s="8">
+        <v>43795159.459573746</v>
+      </c>
+      <c r="BE6" s="8">
+        <v>10723329.590333063</v>
+      </c>
+      <c r="BF6" s="8">
+        <v>2586481.1190262218</v>
+      </c>
+      <c r="BG6" s="8">
+        <v>614674.49718800839</v>
+      </c>
+      <c r="BH6" s="8">
+        <v>143951.43950321758</v>
+      </c>
+      <c r="BI6" s="8">
+        <v>33227.608249672216</v>
+      </c>
+      <c r="BJ6" s="8">
+        <v>7560.8449494741517</v>
+      </c>
+      <c r="BK6" s="8">
+        <v>1696.3064600001273</v>
+      </c>
+      <c r="BL6" s="8">
+        <v>375.2962470875994</v>
+      </c>
+      <c r="BM6" s="8">
+        <v>81.89396300225286</v>
+      </c>
+      <c r="BN6" s="8">
+        <v>17.6281940461974</v>
+      </c>
+      <c r="BO6" s="8">
+        <v>3.7437877495866898</v>
+      </c>
+      <c r="BP6" s="8">
+        <v>0.78456689174768957</v>
+      </c>
+      <c r="BQ6" s="8">
+        <v>0.1622671934059689</v>
+      </c>
+      <c r="BR6" s="8">
+        <v>3.3126750501478439E-2</v>
+      </c>
+      <c r="BS6" s="8">
+        <v>6.6763402261547609E-3</v>
+      </c>
+      <c r="BT6" s="8">
+        <v>1.3285335763249207E-3</v>
+      </c>
+      <c r="BU6" s="8">
+        <v>2.6106149294066283E-4</v>
+      </c>
+      <c r="BV6" s="8">
+        <v>5.0665216576306277E-5</v>
+      </c>
+      <c r="BW6" s="8">
+        <v>9.7125496603067529E-6</v>
+      </c>
+      <c r="BX6" s="8">
+        <v>1.839378938127661E-6</v>
+      </c>
+      <c r="BY6" s="8">
+        <v>3.4417635342712701E-7</v>
+      </c>
+      <c r="BZ6" s="8">
+        <v>6.3638348198583072E-8</v>
+      </c>
+      <c r="CA6" s="8">
+        <v>1.1628935482896101E-8</v>
+      </c>
+      <c r="CB6" s="8">
+        <v>2.1003822407237754E-9</v>
+      </c>
+      <c r="CC6" s="8">
+        <v>3.7501371390646778E-10</v>
+      </c>
+      <c r="CD6" s="8">
+        <v>6.6197035709460522E-11</v>
+      </c>
+      <c r="CE6" s="8">
+        <v>1.1553769636408816E-11</v>
+      </c>
+      <c r="CF6" s="8">
+        <v>1.9941273530635403E-12</v>
+      </c>
+      <c r="CG6" s="8">
+        <v>3.4038894284347626E-13</v>
+      </c>
+      <c r="CH6" s="8">
+        <v>5.7469817026138062E-14</v>
+      </c>
+      <c r="CI6" s="8">
+        <v>9.598283643694677E-15</v>
+      </c>
+      <c r="CJ6" s="8">
+        <v>1.5859279985907435E-15</v>
+      </c>
+      <c r="CK6" s="8">
+        <v>2.5927185055986729E-16</v>
+      </c>
+      <c r="CL6" s="8">
+        <v>4.1942504808589227E-17</v>
+      </c>
+      <c r="CM6" s="8">
+        <v>6.7146709922169878E-18</v>
+      </c>
+      <c r="CN6" s="8">
+        <v>1.0639225160906493E-18</v>
+      </c>
+      <c r="CO6" s="8">
+        <v>1.6686025346764159E-19</v>
+      </c>
+      <c r="CP6" s="8">
+        <v>2.5905706567320147E-20</v>
+      </c>
+      <c r="CQ6" s="8">
+        <v>3.9817951386878816E-21</v>
+      </c>
+      <c r="CR6" s="8">
+        <v>6.0595989808803555E-22</v>
+      </c>
+      <c r="CS6" s="8">
+        <v>9.1312501471645419E-23</v>
+      </c>
+      <c r="CT6" s="8">
+        <v>1.3626276202702432E-23</v>
+      </c>
+      <c r="CU6" s="8">
+        <v>2.0138321598892055E-24</v>
+      </c>
+      <c r="CV6" s="8">
+        <v>2.9478568686271544E-25</v>
+      </c>
+      <c r="CW6" s="8">
+        <v>4.2742883645917464E-26</v>
+      </c>
+      <c r="CX6" s="8">
+        <v>6.1394886433498708E-27</v>
+      </c>
+      <c r="CY6" s="8">
+        <v>8.7367032857849535E-28</v>
+      </c>
+      <c r="CZ6" s="8">
+        <v>1.2318148499142275E-28</v>
+      </c>
+      <c r="DA6" s="8">
+        <v>1.720919788680477E-29</v>
+      </c>
+      <c r="DB6" s="8">
+        <v>2.3824702378600354E-30</v>
+      </c>
+      <c r="DC6" s="8">
+        <v>3.2687354175106744E-31</v>
+      </c>
+      <c r="DD6" s="8">
+        <v>4.4447845057942836E-32</v>
+      </c>
+      <c r="DE6" s="8">
+        <v>5.9906370574036947E-33</v>
+      </c>
+      <c r="DF6" s="8">
+        <v>8.0034797235165483E-34</v>
+      </c>
+      <c r="DG6" s="8">
+        <v>1.0599854682906818E-34</v>
+      </c>
+      <c r="DH6" s="8">
+        <v>1.3917697170167485E-35</v>
+      </c>
+      <c r="DI6" s="8">
+        <v>1.8118071389382675E-36</v>
+      </c>
+      <c r="DJ6" s="8">
+        <v>2.3386428063077367E-37</v>
+      </c>
+      <c r="DK6" s="8">
+        <v>2.9933185446911604E-38</v>
+      </c>
+      <c r="DL6" s="8">
+        <v>3.7993421707274319E-39</v>
+      </c>
+      <c r="DM6" s="8">
+        <v>4.7825463102956454E-40</v>
+      </c>
+      <c r="DN6" s="8">
+        <v>5.9708162309203967E-41</v>
+      </c>
+      <c r="DO6" s="8">
+        <v>7.3936686946125888E-42</v>
+      </c>
+      <c r="DP6" s="8">
+        <v>9.0816681681623571E-43</v>
+      </c>
+      <c r="DQ6" s="8">
+        <v>1.1065672890031938E-43</v>
+      </c>
+      <c r="DR6" s="8">
+        <v>1.3375911228455253E-44</v>
+      </c>
+      <c r="DS6" s="8">
+        <v>1.6040898263820785E-45</v>
+      </c>
+      <c r="DT6" s="8">
+        <v>1.9086213216573376E-46</v>
+      </c>
+      <c r="DU6" s="8">
+        <v>2.2533169685442004E-47</v>
+      </c>
+      <c r="DV6" s="8">
+        <v>2.6397421982579048E-48</v>
+      </c>
+      <c r="DW6" s="8">
+        <v>3.0687561365419259E-49</v>
+      </c>
+      <c r="DX6" s="8">
+        <v>3.5403764822912176E-50</v>
+      </c>
+      <c r="DY6" s="8">
+        <v>4.0536565430731149E-51</v>
+      </c>
+      <c r="DZ6" s="8">
+        <v>4.6065816372218703E-52</v>
+      </c>
+      <c r="EA6" s="8">
+        <v>5.1959919899592684E-53</v>
+      </c>
+      <c r="EB6" s="8">
+        <v>5.8175387366754195E-54</v>
+      </c>
+      <c r="EC6" s="8">
+        <v>6.4656786855152237E-55</v>
+      </c>
+      <c r="ED6" s="8">
+        <v>7.1337121002724387E-56</v>
+      </c>
+      <c r="EE6" s="8">
+        <v>7.8138659925396651E-57</v>
+      </c>
+      <c r="EF6" s="8">
+        <v>8.4974233401798713E-58</v>
+      </c>
+      <c r="EG6" s="8">
+        <v>9.1748963864736155E-59</v>
+      </c>
+      <c r="EH6" s="8">
+        <v>9.8362398512613606E-60</v>
+      </c>
+      <c r="EI6" s="8">
+        <v>1.0471097645456014E-60</v>
+      </c>
+      <c r="EJ6" s="8">
+        <v>1.1069074669243018E-61</v>
+      </c>
+      <c r="EK6" s="8">
+        <v>1.1620023629491383E-62</v>
+      </c>
+      <c r="EL6" s="8">
+        <v>1.2114335651463298E-63</v>
+      </c>
+      <c r="EM6" s="8">
+        <v>1.254322287296733E-64</v>
+      </c>
+      <c r="EN6" s="8">
+        <v>1.2898981248322181E-65</v>
+      </c>
+      <c r="EO6" s="8">
+        <v>1.3175222466508337E-66</v>
+      </c>
+      <c r="EP6" s="8">
+        <v>1.3367065171500585E-67</v>
+      </c>
+      <c r="EQ6" s="8">
+        <v>1.3471277491089771E-68</v>
+      </c>
+      <c r="ER6" s="8">
+        <v>1.3486365126114966E-69</v>
+      </c>
+      <c r="ES6" s="8">
+        <v>1.3412601789684809E-70</v>
+      </c>
+      <c r="ET6" s="8">
+        <v>1.3252001463049876E-71</v>
+      </c>
+      <c r="EU6" s="8">
+        <v>1.3008234592071155E-72</v>
+      </c>
+      <c r="EV6" s="8">
+        <v>1.2686492831734244E-73</v>
+      </c>
+      <c r="EW6" s="8">
+        <v>1.2293309117638721E-74</v>
+      </c>
+      <c r="EX6" s="8">
+        <v>1.1836341589550772E-75</v>
+      </c>
+      <c r="EY6" s="8">
+        <v>1.1324131131483016E-76</v>
+      </c>
+      <c r="EZ6" s="8">
+        <v>1.0765842979651407E-77</v>
+      </c>
+      <c r="FA6" s="8">
+        <v>1.0171002975629352E-78</v>
+      </c>
+      <c r="FB6" s="8">
+        <v>9.5492386338440892E-80</v>
+      </c>
+      <c r="FC6" s="8">
+        <v>8.910034308460624E-81</v>
+      </c>
+      <c r="FD6" s="8">
+        <v>8.2625084678138309E-82</v>
+      </c>
+      <c r="FE6" s="8">
+        <v>7.6152195156728249E-83</v>
+      </c>
+      <c r="FF6" s="8">
+        <v>6.9760048477851865E-84</v>
+      </c>
+      <c r="FG6" s="8">
+        <v>6.3518560106859466E-85</v>
+      </c>
+      <c r="FH6" s="8">
+        <v>5.7488310426663926E-86</v>
+      </c>
+      <c r="FI6" s="8">
+        <v>5.1720034166133821E-87</v>
+      </c>
+      <c r="FJ6" s="8">
+        <v>4.6254455463892356E-88</v>
+      </c>
+      <c r="FK6" s="8">
+        <v>4.1122436175982245E-89</v>
+      </c>
+      <c r="FL6" s="8">
+        <v>3.63453959353787E-90</v>
+      </c>
+      <c r="FM6" s="8">
+        <v>3.1935956405027781E-91</v>
+      </c>
+      <c r="FN6" s="8">
+        <v>2.7898759068035138E-92</v>
+      </c>
+      <c r="FO6" s="8">
+        <v>2.4231405540741246E-93</v>
+      </c>
+      <c r="FP6" s="8">
+        <v>2.0925471422809995E-94</v>
+      </c>
+      <c r="FQ6" s="8">
+        <v>1.7967548672903792E-95</v>
+      </c>
+      <c r="FR6" s="8">
+        <v>1.5340276932730782E-96</v>
+      </c>
+      <c r="FS6" s="8">
+        <v>1.3023330621115984E-97</v>
+      </c>
+      <c r="FT6" s="8">
+        <v>1.0994335510816051E-98</v>
+      </c>
+      <c r="FU6" s="8">
+        <v>9.2296954597825838E-100</v>
+      </c>
+      <c r="FV6" s="8">
+        <v>7.7053166374894276E-101</v>
+      </c>
+      <c r="FW6" s="8">
+        <v>6.3972226841560499E-102</v>
+      </c>
+      <c r="FX6" s="8">
+        <v>5.2820595649839584E-103</v>
+      </c>
+      <c r="FY6" s="8">
+        <v>4.3374933096776107E-104</v>
+      </c>
+      <c r="FZ6" s="8">
+        <v>3.5425073073632751E-105</v>
+      </c>
+      <c r="GA6" s="8">
+        <v>2.8776083673391352E-106</v>
+      </c>
+      <c r="GB6" s="8">
+        <v>2.3249524143303661E-107</v>
+      </c>
+      <c r="GC6" s="8">
+        <v>1.8684015563580405E-108</v>
+      </c>
+      <c r="GD6" s="8">
+        <v>1.4935244603895272E-109</v>
+      </c>
+      <c r="GE6" s="8">
+        <v>1.187551623753001E-110</v>
+      </c>
+      <c r="GF6" s="8">
+        <v>9.3929636785138597E-112</v>
+      </c>
+      <c r="GG6" s="8">
+        <v>7.3905132894905732E-113</v>
+      </c>
+      <c r="GH6" s="8">
+        <v>5.7846899090047116E-114</v>
+      </c>
+      <c r="GI6" s="8">
+        <v>4.504334932288595E-115</v>
+      </c>
+      <c r="GJ6" s="8">
+        <v>3.4892963400744637E-116</v>
+      </c>
+      <c r="GK6" s="8">
+        <v>2.6891373162808506E-117</v>
+      </c>
+      <c r="GL6" s="8">
+        <v>2.0618985664365349E-118</v>
+      </c>
+      <c r="GM6" s="8">
+        <v>1.5729392273785447E-119</v>
+      </c>
+      <c r="GN6" s="8">
+        <v>1.1938724930383307E-120</v>
+      </c>
+      <c r="GO6" s="8">
+        <v>9.0160467048525219E-122</v>
+      </c>
+      <c r="GP6" s="8">
+        <v>6.7746118543623698E-123</v>
+      </c>
+      <c r="GQ6" s="8">
+        <v>5.0374895933433015E-124</v>
+      </c>
+      <c r="GR6" s="8">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="8">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="8">
+        <v>0</v>
+      </c>
       <c r="GU6" s="8"/>
       <c r="GV6" s="8"/>
       <c r="GW6" s="8"/>
